--- a/data/raw/lab_jena_results-co2_2019-12-18/Archive_Incubations_Rewetting_DRY.xlsx
+++ b/data/raw/lab_jena_results-co2_2019-12-18/Archive_Incubations_Rewetting_DRY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="220" windowWidth="25340" windowHeight="15220" tabRatio="634" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="220" windowWidth="25340" windowHeight="15220" tabRatio="634" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Methods" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="351">
   <si>
     <t>Depth [cm]</t>
   </si>
@@ -1296,9 +1296,6 @@
   </si>
   <si>
     <t>time_d_cmtv</t>
-  </si>
-  <si>
-    <t>pre</t>
   </si>
 </sst>
 </file>
@@ -1782,10 +1779,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2188,15 +2187,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 3" xfId="1"/>
     <cellStyle name="Standard_Au_Dataimport2003" xfId="2"/>
@@ -2390,7 +2391,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2448,7 +2448,7 @@
                   <c:v>1046.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>872.9499999999999</c:v>
+                  <c:v>872.9499999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>733.07</c:v>
@@ -2532,11 +2532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1956179480"/>
-        <c:axId val="-1956174056"/>
+        <c:axId val="-2014572824"/>
+        <c:axId val="-2014567576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1956179480"/>
+        <c:axId val="-2014572824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,19 +2558,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1956174056"/>
+        <c:crossAx val="-2014567576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1956174056"/>
+        <c:axId val="-2014567576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,14 +2592,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1956179480"/>
+        <c:crossAx val="-2014572824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2659,6 +2657,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2795,11 +2794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2045938760"/>
-        <c:axId val="-2045954856"/>
+        <c:axId val="-2060552776"/>
+        <c:axId val="-2060707016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2045938760"/>
+        <c:axId val="-2060552776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,18 +2820,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2045954856"/>
+        <c:crossAx val="-2060707016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2045954856"/>
+        <c:axId val="-2060707016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,13 +2855,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2045938760"/>
+        <c:crossAx val="-2060552776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3051,11 +3052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2046063224"/>
-        <c:axId val="-2046057800"/>
+        <c:axId val="-2120351576"/>
+        <c:axId val="-2120346744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2046063224"/>
+        <c:axId val="-2120351576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,12 +3084,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046057800"/>
+        <c:crossAx val="-2120346744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2046057800"/>
+        <c:axId val="-2120346744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,7 +3118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046063224"/>
+        <c:crossAx val="-2120351576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3306,11 +3307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2046106840"/>
-        <c:axId val="-2046114872"/>
+        <c:axId val="-2120399368"/>
+        <c:axId val="-2105507016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2046106840"/>
+        <c:axId val="-2120399368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,12 +3339,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046114872"/>
+        <c:crossAx val="-2105507016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2046114872"/>
+        <c:axId val="-2105507016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,7 +3373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046106840"/>
+        <c:crossAx val="-2120399368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3487,7 +3488,7 @@
                   <c:v>862.57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>726.3199999999999</c:v>
+                  <c:v>726.3199999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>548.87</c:v>
@@ -3562,11 +3563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1955974472"/>
-        <c:axId val="-1955969048"/>
+        <c:axId val="-2120655064"/>
+        <c:axId val="-2120463944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1955974472"/>
+        <c:axId val="-2120655064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3594,12 +3595,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1955969048"/>
+        <c:crossAx val="-2120463944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1955969048"/>
+        <c:axId val="-2120463944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +3629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1955974472"/>
+        <c:crossAx val="-2120655064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3817,11 +3818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1955937640"/>
-        <c:axId val="-1955932136"/>
+        <c:axId val="-2016074136"/>
+        <c:axId val="-2016161960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1955937640"/>
+        <c:axId val="-2016074136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,12 +3850,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1955932136"/>
+        <c:crossAx val="-2016161960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1955932136"/>
+        <c:axId val="-2016161960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3883,7 +3884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1955937640"/>
+        <c:crossAx val="-2016074136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3942,7 +3943,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4079,11 +4079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1956142648"/>
-        <c:axId val="-1956137144"/>
+        <c:axId val="-2014536056"/>
+        <c:axId val="-2014530792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1956142648"/>
+        <c:axId val="-2014536056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,19 +4105,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1956137144"/>
+        <c:crossAx val="-2014530792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1956137144"/>
+        <c:axId val="-2014530792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,14 +4139,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1956142648"/>
+        <c:crossAx val="-2014536056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4202,7 +4200,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4344,11 +4341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1956086568"/>
-        <c:axId val="-1956081144"/>
+        <c:axId val="-2014479784"/>
+        <c:axId val="-2014474536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1956086568"/>
+        <c:axId val="-2014479784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4370,19 +4367,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1956081144"/>
+        <c:crossAx val="-2014474536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1956081144"/>
+        <c:axId val="-2014474536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4405,14 +4401,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1956086568"/>
+        <c:crossAx val="-2014479784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4471,7 +4466,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4608,11 +4602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1956049032"/>
-        <c:axId val="-1956043528"/>
+        <c:axId val="-2014442312"/>
+        <c:axId val="-2014437048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1956049032"/>
+        <c:axId val="-2014442312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4634,19 +4628,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1956043528"/>
+        <c:crossAx val="-2014437048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1956043528"/>
+        <c:axId val="-2014437048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4669,14 +4662,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1956049032"/>
+        <c:crossAx val="-2014442312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4866,11 +4858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2052153256"/>
-        <c:axId val="-2052145928"/>
+        <c:axId val="-2014387384"/>
+        <c:axId val="-2014382136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2052153256"/>
+        <c:axId val="-2014387384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4898,12 +4890,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052145928"/>
+        <c:crossAx val="-2014382136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2052145928"/>
+        <c:axId val="-2014382136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052153256"/>
+        <c:crossAx val="-2014387384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5121,11 +5113,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2052109160"/>
-        <c:axId val="-2052103704"/>
+        <c:axId val="-2014350600"/>
+        <c:axId val="-2014345336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2052109160"/>
+        <c:axId val="-2014350600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5153,12 +5145,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052103704"/>
+        <c:crossAx val="-2014345336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2052103704"/>
+        <c:axId val="-2014345336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,7 +5179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052109160"/>
+        <c:crossAx val="-2014350600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5299,13 +5291,13 @@
                   <c:v>1057.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>820.9299999999998</c:v>
+                  <c:v>820.9299999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>733.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>526.0599999999998</c:v>
+                  <c:v>526.0599999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>357.16</c:v>
@@ -5377,11 +5369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2052524328"/>
-        <c:axId val="-2052518920"/>
+        <c:axId val="-2015248376"/>
+        <c:axId val="-2015253624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2052524328"/>
+        <c:axId val="-2015248376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,12 +5401,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052518920"/>
+        <c:crossAx val="-2015253624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2052518920"/>
+        <c:axId val="-2015253624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5443,7 +5435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052524328"/>
+        <c:crossAx val="-2015248376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5632,11 +5624,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2052560568"/>
-        <c:axId val="-2052587912"/>
+        <c:axId val="-2015285096"/>
+        <c:axId val="-2015290376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2052560568"/>
+        <c:axId val="-2015285096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5664,12 +5656,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052587912"/>
+        <c:crossAx val="-2015290376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2052587912"/>
+        <c:axId val="-2015290376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5698,7 +5690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052560568"/>
+        <c:crossAx val="-2015285096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5753,6 +5745,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5894,11 +5887,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2045882104"/>
-        <c:axId val="-2045888088"/>
+        <c:axId val="-2015341288"/>
+        <c:axId val="-2015346536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2045882104"/>
+        <c:axId val="-2015341288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5920,18 +5913,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2045888088"/>
+        <c:crossAx val="-2015346536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2045888088"/>
+        <c:axId val="-2015346536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5954,13 +5948,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2045882104"/>
+        <c:crossAx val="-2015341288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17959,8 +17954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18067,8 +18062,9 @@
         <f>DAY(I2)+I2-ROUNDDOWN(I2,0)</f>
         <v>12.625</v>
       </c>
-      <c r="M2" t="s">
-        <v>351</v>
+      <c r="M2" t="str">
+        <f>IF(C2&lt;5,"pre","inc")</f>
+        <v>pre</v>
       </c>
       <c r="N2" s="10">
         <f>I2-E2</f>
@@ -18079,7 +18075,7 @@
         <v>5.0066959970461795</v>
       </c>
       <c r="P2" s="10">
-        <f t="shared" ref="P2" si="1">IF(M2="pre",N2,I2-E2)</f>
+        <f>IF(M2="pre",N2,I2-VLOOKUP(A2,$A$2:$E$13,5,FALSE))</f>
         <v>0.95833333333575865</v>
       </c>
     </row>
@@ -18088,7 +18084,7 @@
         <v>153</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="2">LEFT(A3,5)</f>
+        <f t="shared" ref="B3:B66" si="1">LEFT(A3,5)</f>
         <v>HEW22</v>
       </c>
       <c r="C3">
@@ -18096,7 +18092,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="3">IF(AND(C3&lt;&gt;C2,I3=I2),"fix meas date","")</f>
+        <f t="shared" ref="D3:D66" si="2">IF(AND(C3&lt;&gt;C2,I3=I2),"fix meas date","")</f>
         <v/>
       </c>
       <c r="E3">
@@ -18104,15 +18100,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="4">YEAR(E3)</f>
+        <f t="shared" ref="F3:F66" si="3">YEAR(E3)</f>
         <v>2019</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="5">MONTH(E3)</f>
+        <f t="shared" ref="G3:G66" si="4">MONTH(E3)</f>
         <v>11</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="6">DAY(E3)+E3-ROUNDDOWN(E3,0)</f>
+        <f t="shared" ref="H3:H66" si="5">DAY(E3)+E3-ROUNDDOWN(E3,0)</f>
         <v>11.666666666664241</v>
       </c>
       <c r="I3" s="140">
@@ -18120,19 +18116,20 @@
         <v>43781.625</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="7">YEAR(I3)</f>
+        <f t="shared" ref="J3:J66" si="6">YEAR(I3)</f>
         <v>2019</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="8">MONTH(I3)</f>
+        <f t="shared" ref="K3:K66" si="7">MONTH(I3)</f>
         <v>11</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="9">DAY(I3)+I3-ROUNDDOWN(I3,0)</f>
+        <f t="shared" ref="L3:L66" si="8">DAY(I3)+I3-ROUNDDOWN(I3,0)</f>
         <v>12.625</v>
       </c>
-      <c r="M3" t="s">
-        <v>351</v>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="9">IF(C3&lt;5,"pre","inc")</f>
+        <v>pre</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N66" si="10">I3-E3</f>
@@ -18143,7 +18140,7 @@
         <v>5.1722956520609102</v>
       </c>
       <c r="P3" s="10">
-        <f t="shared" ref="P3:P66" si="11">IF(M3="pre",N3,I3-E3)</f>
+        <f t="shared" ref="P3:P66" si="11">IF(M3="pre",N3,I3-VLOOKUP(A3,$A$2:$E$13,5,FALSE))</f>
         <v>0.95833333333575865</v>
       </c>
     </row>
@@ -18152,7 +18149,7 @@
         <v>154</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C4">
@@ -18160,7 +18157,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E4">
@@ -18168,15 +18165,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F4">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I4" s="140">
@@ -18184,19 +18181,20 @@
         <v>43781.625</v>
       </c>
       <c r="J4">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L4">
+        <v>12.625</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" si="9"/>
-        <v>12.625</v>
-      </c>
-      <c r="M4" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="10"/>
@@ -18216,7 +18214,7 @@
         <v>155</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C5">
@@ -18224,7 +18222,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E5">
@@ -18232,15 +18230,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F5">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I5" s="140">
@@ -18248,19 +18246,20 @@
         <v>43781.625</v>
       </c>
       <c r="J5">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L5">
+        <v>12.625</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" si="9"/>
-        <v>12.625</v>
-      </c>
-      <c r="M5" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="10"/>
@@ -18280,7 +18279,7 @@
         <v>156</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C6">
@@ -18288,7 +18287,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E6">
@@ -18296,15 +18295,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F6">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I6" s="140">
@@ -18312,19 +18311,20 @@
         <v>43781.625</v>
       </c>
       <c r="J6">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L6">
+        <v>12.625</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="9"/>
-        <v>12.625</v>
-      </c>
-      <c r="M6" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" si="10"/>
@@ -18344,7 +18344,7 @@
         <v>157</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C7">
@@ -18352,7 +18352,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E7">
@@ -18360,15 +18360,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F7">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I7" s="140">
@@ -18376,19 +18376,20 @@
         <v>43781.625</v>
       </c>
       <c r="J7">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L7">
+        <v>12.625</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="9"/>
-        <v>12.625</v>
-      </c>
-      <c r="M7" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" si="10"/>
@@ -18408,7 +18409,7 @@
         <v>158</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG10</v>
       </c>
       <c r="C8">
@@ -18416,7 +18417,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E8">
@@ -18424,15 +18425,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F8">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I8" s="140">
@@ -18440,19 +18441,20 @@
         <v>43781.625</v>
       </c>
       <c r="J8">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L8">
+        <v>12.625</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="9"/>
-        <v>12.625</v>
-      </c>
-      <c r="M8" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" si="10"/>
@@ -18472,7 +18474,7 @@
         <v>159</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG10</v>
       </c>
       <c r="C9">
@@ -18480,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E9">
@@ -18488,15 +18490,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F9">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I9" s="140">
@@ -18504,19 +18506,20 @@
         <v>43781.625</v>
       </c>
       <c r="J9">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L9">
+        <v>12.625</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="9"/>
-        <v>12.625</v>
-      </c>
-      <c r="M9" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" si="10"/>
@@ -18536,7 +18539,7 @@
         <v>160</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG32</v>
       </c>
       <c r="C10">
@@ -18544,7 +18547,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E10">
@@ -18552,15 +18555,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F10">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I10" s="140">
@@ -18568,19 +18571,20 @@
         <v>43781.625</v>
       </c>
       <c r="J10">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L10">
+        <v>12.625</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="9"/>
-        <v>12.625</v>
-      </c>
-      <c r="M10" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="10"/>
@@ -18600,7 +18604,7 @@
         <v>161</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG32</v>
       </c>
       <c r="C11">
@@ -18608,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E11">
@@ -18616,15 +18620,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F11">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I11" s="140">
@@ -18632,19 +18636,20 @@
         <v>43781.625</v>
       </c>
       <c r="J11">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L11">
+        <v>12.625</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="9"/>
-        <v>12.625</v>
-      </c>
-      <c r="M11" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="10"/>
@@ -18664,7 +18669,7 @@
         <v>162</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG48</v>
       </c>
       <c r="C12">
@@ -18672,7 +18677,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E12">
@@ -18680,15 +18685,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F12">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I12" s="140">
@@ -18696,19 +18701,20 @@
         <v>43781.625</v>
       </c>
       <c r="J12">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L12">
+        <v>12.625</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="9"/>
-        <v>12.625</v>
-      </c>
-      <c r="M12" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="10"/>
@@ -18728,7 +18734,7 @@
         <v>163</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG48</v>
       </c>
       <c r="C13">
@@ -18736,7 +18742,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E13">
@@ -18744,15 +18750,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F13">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I13" s="140">
@@ -18760,19 +18766,20 @@
         <v>43781.625</v>
       </c>
       <c r="J13">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L13">
+        <v>12.625</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="9"/>
-        <v>12.625</v>
-      </c>
-      <c r="M13" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="10"/>
@@ -18792,14 +18799,14 @@
         <v>152</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW22</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E14">
@@ -18807,15 +18814,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F14">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I14" s="140">
@@ -18823,19 +18830,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J14">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L14">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M14" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" si="10"/>
@@ -18855,7 +18863,7 @@
         <v>153</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW22</v>
       </c>
       <c r="C15">
@@ -18863,7 +18871,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E15">
@@ -18871,15 +18879,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F15">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I15" s="140">
@@ -18887,19 +18895,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J15">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L15">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M15" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" si="10"/>
@@ -18919,7 +18928,7 @@
         <v>154</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C16">
@@ -18927,7 +18936,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E16">
@@ -18935,15 +18944,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F16">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I16" s="140">
@@ -18951,19 +18960,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J16">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L16">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M16" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="10"/>
@@ -18983,7 +18993,7 @@
         <v>155</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C17">
@@ -18991,7 +19001,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E17">
@@ -18999,15 +19009,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F17">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I17" s="140">
@@ -19015,19 +19025,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J17">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L17">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M17" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="10"/>
@@ -19047,7 +19058,7 @@
         <v>156</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C18">
@@ -19055,7 +19066,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E18">
@@ -19063,15 +19074,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F18">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I18" s="140">
@@ -19079,19 +19090,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J18">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L18">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M18" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="10"/>
@@ -19111,7 +19123,7 @@
         <v>157</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C19">
@@ -19119,7 +19131,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E19">
@@ -19127,15 +19139,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F19">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I19" s="140">
@@ -19143,19 +19155,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J19">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L19">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M19" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M19" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="10"/>
@@ -19175,7 +19188,7 @@
         <v>158</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG10</v>
       </c>
       <c r="C20">
@@ -19183,7 +19196,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E20">
@@ -19191,15 +19204,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F20">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I20" s="140">
@@ -19207,19 +19220,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J20">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L20">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M20" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="10"/>
@@ -19239,7 +19253,7 @@
         <v>159</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG10</v>
       </c>
       <c r="C21">
@@ -19247,7 +19261,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E21">
@@ -19255,15 +19269,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F21">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I21" s="140">
@@ -19271,19 +19285,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J21">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K21">
+        <v>11</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L21">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M21" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M21" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="10"/>
@@ -19303,7 +19318,7 @@
         <v>160</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG32</v>
       </c>
       <c r="C22">
@@ -19311,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E22">
@@ -19319,15 +19334,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F22">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I22" s="140">
@@ -19335,19 +19350,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J22">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K22">
+        <v>11</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L22">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M22" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M22" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" si="10"/>
@@ -19367,7 +19383,7 @@
         <v>161</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG32</v>
       </c>
       <c r="C23">
@@ -19375,7 +19391,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E23">
@@ -19383,15 +19399,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F23">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I23" s="140">
@@ -19399,19 +19415,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J23">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K23">
+        <v>11</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L23">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M23" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M23" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N23" s="10">
         <f t="shared" si="10"/>
@@ -19431,7 +19448,7 @@
         <v>162</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG48</v>
       </c>
       <c r="C24">
@@ -19439,7 +19456,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E24">
@@ -19447,15 +19464,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F24">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I24" s="140">
@@ -19463,19 +19480,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J24">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K24">
+        <v>11</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L24">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M24" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M24" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N24" s="10">
         <f t="shared" si="10"/>
@@ -19495,7 +19513,7 @@
         <v>163</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG48</v>
       </c>
       <c r="C25">
@@ -19503,7 +19521,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E25">
@@ -19511,15 +19529,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F25">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I25" s="140">
@@ -19527,19 +19545,20 @@
         <v>43782.611111111109</v>
       </c>
       <c r="J25">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L25">
+        <v>13.611111111109494</v>
+      </c>
+      <c r="M25" t="str">
         <f t="shared" si="9"/>
-        <v>13.611111111109494</v>
-      </c>
-      <c r="M25" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N25" s="10">
         <f t="shared" si="10"/>
@@ -19559,14 +19578,14 @@
         <v>152</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW22</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E26">
@@ -19574,15 +19593,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F26">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I26" s="140">
@@ -19590,19 +19609,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J26">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K26">
+        <v>11</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L26">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M26" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M26" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="10"/>
@@ -19622,7 +19642,7 @@
         <v>153</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW22</v>
       </c>
       <c r="C27">
@@ -19630,7 +19650,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E27">
@@ -19638,15 +19658,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F27">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I27" s="140">
@@ -19654,19 +19674,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J27">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L27">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M27" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M27" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="10"/>
@@ -19686,7 +19707,7 @@
         <v>154</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C28">
@@ -19694,7 +19715,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E28">
@@ -19702,15 +19723,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F28">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I28" s="140">
@@ -19718,19 +19739,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J28">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K28">
+        <v>11</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L28">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M28" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M28" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N28" s="10">
         <f t="shared" si="10"/>
@@ -19750,7 +19772,7 @@
         <v>155</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C29">
@@ -19758,7 +19780,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E29">
@@ -19766,15 +19788,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F29">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I29" s="140">
@@ -19782,19 +19804,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J29">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K29">
+        <v>11</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L29">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M29" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M29" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N29" s="10">
         <f t="shared" si="10"/>
@@ -19814,7 +19837,7 @@
         <v>156</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C30">
@@ -19822,7 +19845,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E30">
@@ -19830,15 +19853,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F30">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I30" s="140">
@@ -19846,19 +19869,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J30">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K30">
+        <v>11</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L30">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M30" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M30" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N30" s="10">
         <f t="shared" si="10"/>
@@ -19878,7 +19902,7 @@
         <v>157</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C31">
@@ -19886,7 +19910,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E31">
@@ -19894,15 +19918,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F31">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I31" s="140">
@@ -19910,19 +19934,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J31">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K31">
+        <v>11</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L31">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M31" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M31" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N31" s="10">
         <f t="shared" si="10"/>
@@ -19942,7 +19967,7 @@
         <v>158</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG10</v>
       </c>
       <c r="C32">
@@ -19950,7 +19975,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E32">
@@ -19958,15 +19983,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F32">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I32" s="140">
@@ -19974,19 +19999,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J32">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K32">
+        <v>11</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L32">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M32" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M32" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N32" s="10">
         <f t="shared" si="10"/>
@@ -20006,7 +20032,7 @@
         <v>159</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG10</v>
       </c>
       <c r="C33">
@@ -20014,7 +20040,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E33">
@@ -20022,15 +20048,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F33">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I33" s="140">
@@ -20038,19 +20064,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J33">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K33">
+        <v>11</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L33">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M33" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M33" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N33" s="10">
         <f t="shared" si="10"/>
@@ -20070,7 +20097,7 @@
         <v>160</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG32</v>
       </c>
       <c r="C34">
@@ -20078,7 +20105,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E34">
@@ -20086,15 +20113,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F34">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I34" s="140">
@@ -20102,19 +20129,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J34">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K34">
+        <v>11</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L34">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M34" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M34" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N34" s="10">
         <f t="shared" si="10"/>
@@ -20134,7 +20162,7 @@
         <v>161</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG32</v>
       </c>
       <c r="C35">
@@ -20142,7 +20170,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E35">
@@ -20150,15 +20178,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F35">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I35" s="140">
@@ -20166,19 +20194,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J35">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L35">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M35" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M35" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N35" s="10">
         <f t="shared" si="10"/>
@@ -20198,7 +20227,7 @@
         <v>162</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG48</v>
       </c>
       <c r="C36">
@@ -20206,7 +20235,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E36">
@@ -20214,15 +20243,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F36">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I36" s="140">
@@ -20230,19 +20259,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J36">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K36">
+        <v>11</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L36">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M36" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M36" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N36" s="10">
         <f t="shared" si="10"/>
@@ -20262,7 +20292,7 @@
         <v>163</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG48</v>
       </c>
       <c r="C37">
@@ -20270,7 +20300,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E37">
@@ -20278,15 +20308,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F37">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I37" s="140">
@@ -20294,19 +20324,20 @@
         <v>43783.572916666664</v>
       </c>
       <c r="J37">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L37">
+        <v>14.572916666664241</v>
+      </c>
+      <c r="M37" t="str">
         <f t="shared" si="9"/>
-        <v>14.572916666664241</v>
-      </c>
-      <c r="M37" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N37" s="10">
         <f t="shared" si="10"/>
@@ -20326,14 +20357,14 @@
         <v>152</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW22</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E38">
@@ -20341,15 +20372,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F38">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I38" s="140">
@@ -20357,19 +20388,20 @@
         <v>43784.625</v>
       </c>
       <c r="J38">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K38">
+        <v>11</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L38">
+        <v>15.625</v>
+      </c>
+      <c r="M38" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M38" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N38" s="10">
         <f t="shared" si="10"/>
@@ -20389,7 +20421,7 @@
         <v>153</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW22</v>
       </c>
       <c r="C39">
@@ -20397,7 +20429,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E39">
@@ -20405,15 +20437,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F39">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I39" s="140">
@@ -20421,19 +20453,20 @@
         <v>43784.625</v>
       </c>
       <c r="J39">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K39">
+        <v>11</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L39">
+        <v>15.625</v>
+      </c>
+      <c r="M39" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M39" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N39" s="10">
         <f t="shared" si="10"/>
@@ -20453,7 +20486,7 @@
         <v>154</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C40">
@@ -20461,7 +20494,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E40">
@@ -20469,15 +20502,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F40">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I40" s="140">
@@ -20485,19 +20518,20 @@
         <v>43784.625</v>
       </c>
       <c r="J40">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K40">
+        <v>11</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L40">
+        <v>15.625</v>
+      </c>
+      <c r="M40" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M40" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N40" s="10">
         <f t="shared" si="10"/>
@@ -20517,7 +20551,7 @@
         <v>155</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C41">
@@ -20525,7 +20559,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E41">
@@ -20533,15 +20567,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F41">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I41" s="140">
@@ -20549,19 +20583,20 @@
         <v>43784.625</v>
       </c>
       <c r="J41">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L41">
+        <v>15.625</v>
+      </c>
+      <c r="M41" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M41" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N41" s="10">
         <f t="shared" si="10"/>
@@ -20581,7 +20616,7 @@
         <v>156</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C42">
@@ -20589,7 +20624,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E42">
@@ -20597,15 +20632,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F42">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I42" s="140">
@@ -20613,19 +20648,20 @@
         <v>43784.625</v>
       </c>
       <c r="J42">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K42">
+        <v>11</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L42">
+        <v>15.625</v>
+      </c>
+      <c r="M42" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M42" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N42" s="10">
         <f t="shared" si="10"/>
@@ -20645,7 +20681,7 @@
         <v>157</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C43">
@@ -20653,7 +20689,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E43">
@@ -20661,15 +20697,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F43">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I43" s="140">
@@ -20677,19 +20713,20 @@
         <v>43784.625</v>
       </c>
       <c r="J43">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K43">
+        <v>11</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L43">
+        <v>15.625</v>
+      </c>
+      <c r="M43" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M43" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N43" s="10">
         <f t="shared" si="10"/>
@@ -20709,7 +20746,7 @@
         <v>158</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG10</v>
       </c>
       <c r="C44">
@@ -20717,7 +20754,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E44">
@@ -20725,15 +20762,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F44">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I44" s="140">
@@ -20741,19 +20778,20 @@
         <v>43784.625</v>
       </c>
       <c r="J44">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K44">
+        <v>11</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L44">
+        <v>15.625</v>
+      </c>
+      <c r="M44" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M44" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N44" s="10">
         <f t="shared" si="10"/>
@@ -20773,7 +20811,7 @@
         <v>159</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG10</v>
       </c>
       <c r="C45">
@@ -20781,7 +20819,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E45">
@@ -20789,15 +20827,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F45">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I45" s="140">
@@ -20805,19 +20843,20 @@
         <v>43784.625</v>
       </c>
       <c r="J45">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K45">
+        <v>11</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L45">
+        <v>15.625</v>
+      </c>
+      <c r="M45" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M45" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N45" s="10">
         <f t="shared" si="10"/>
@@ -20837,7 +20876,7 @@
         <v>160</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG32</v>
       </c>
       <c r="C46">
@@ -20845,7 +20884,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E46">
@@ -20853,15 +20892,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F46">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I46" s="140">
@@ -20869,19 +20908,20 @@
         <v>43784.625</v>
       </c>
       <c r="J46">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K46">
+        <v>11</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L46">
+        <v>15.625</v>
+      </c>
+      <c r="M46" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M46" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N46" s="10">
         <f t="shared" si="10"/>
@@ -20901,7 +20941,7 @@
         <v>161</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG32</v>
       </c>
       <c r="C47">
@@ -20909,7 +20949,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E47">
@@ -20917,15 +20957,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F47">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G47">
+        <v>11</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I47" s="140">
@@ -20933,19 +20973,20 @@
         <v>43784.625</v>
       </c>
       <c r="J47">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K47">
+        <v>11</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L47">
+        <v>15.625</v>
+      </c>
+      <c r="M47" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M47" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N47" s="10">
         <f t="shared" si="10"/>
@@ -20965,7 +21006,7 @@
         <v>162</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG48</v>
       </c>
       <c r="C48">
@@ -20973,7 +21014,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E48">
@@ -20981,15 +21022,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F48">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G48">
+        <v>11</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I48" s="140">
@@ -20997,19 +21038,20 @@
         <v>43784.625</v>
       </c>
       <c r="J48">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K48">
+        <v>11</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L48">
+        <v>15.625</v>
+      </c>
+      <c r="M48" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M48" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N48" s="10">
         <f t="shared" si="10"/>
@@ -21029,7 +21071,7 @@
         <v>163</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG48</v>
       </c>
       <c r="C49">
@@ -21037,7 +21079,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E49">
@@ -21045,15 +21087,15 @@
         <v>43780.666666666664</v>
       </c>
       <c r="F49">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G49">
+        <v>11</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="6"/>
         <v>11.666666666664241</v>
       </c>
       <c r="I49" s="140">
@@ -21061,19 +21103,20 @@
         <v>43784.625</v>
       </c>
       <c r="J49">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K49">
+        <v>11</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L49">
+        <v>15.625</v>
+      </c>
+      <c r="M49" t="str">
         <f t="shared" si="9"/>
-        <v>15.625</v>
-      </c>
-      <c r="M49" t="s">
-        <v>351</v>
+        <v>pre</v>
       </c>
       <c r="N49" s="10">
         <f t="shared" si="10"/>
@@ -21093,54 +21136,55 @@
         <v>152</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW22</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E50">
+        <f>VLOOKUP($A50,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E50">
-        <f>VLOOKUP($A50,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F50">
+        <v>2019</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I50" s="140">
         <f>VLOOKUP($A50,IF(C50=1,Pre12.11.19!$A$17:$O$40,IF(C50=2,Pre13.11.19!$A$17:$O$40,IF(C50=3,Pre14.11.19!$A$17:$O$40,IF(C50=4,Pre15.11.19!$A$17:$O$40,IF(C50=5,Inc18.11.19!$A$17:$O$40,IF(C50=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J50">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K50">
+        <v>11</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L50">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M50" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M50" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N50" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O50">
         <f>IFERROR(VLOOKUP($A50,IF(C50=1,Pre12.11.19!$A$17:$O$40,IF(C50=2,Pre13.11.19!$A$17:$O$40,IF(C50=3,Pre14.11.19!$A$17:$O$40,IF(C50=4,Pre15.11.19!$A$17:$O$40,IF(C50=5,Inc18.11.19!$A$17:$O$40,IF(C50=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21156,7 +21200,7 @@
         <v>153</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW22</v>
       </c>
       <c r="C51">
@@ -21164,47 +21208,48 @@
         <v>5</v>
       </c>
       <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E51">
+        <f>VLOOKUP($A51,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E51">
-        <f>VLOOKUP($A51,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F51">
+        <v>2019</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I51" s="140">
         <f>VLOOKUP($A51,IF(C51=1,Pre12.11.19!$A$17:$O$40,IF(C51=2,Pre13.11.19!$A$17:$O$40,IF(C51=3,Pre14.11.19!$A$17:$O$40,IF(C51=4,Pre15.11.19!$A$17:$O$40,IF(C51=5,Inc18.11.19!$A$17:$O$40,IF(C51=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J51">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K51">
+        <v>11</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L51">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M51" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M51" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N51" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O51">
         <f>IFERROR(VLOOKUP($A51,IF(C51=1,Pre12.11.19!$A$17:$O$40,IF(C51=2,Pre13.11.19!$A$17:$O$40,IF(C51=3,Pre14.11.19!$A$17:$O$40,IF(C51=4,Pre15.11.19!$A$17:$O$40,IF(C51=5,Inc18.11.19!$A$17:$O$40,IF(C51=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21220,7 +21265,7 @@
         <v>154</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C52">
@@ -21228,47 +21273,48 @@
         <v>5</v>
       </c>
       <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E52">
+        <f>VLOOKUP($A52,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E52">
-        <f>VLOOKUP($A52,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F52">
+        <v>2019</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G52">
+        <v>11</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I52" s="140">
         <f>VLOOKUP($A52,IF(C52=1,Pre12.11.19!$A$17:$O$40,IF(C52=2,Pre13.11.19!$A$17:$O$40,IF(C52=3,Pre14.11.19!$A$17:$O$40,IF(C52=4,Pre15.11.19!$A$17:$O$40,IF(C52=5,Inc18.11.19!$A$17:$O$40,IF(C52=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J52">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K52">
+        <v>11</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L52">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M52" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M52" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N52" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O52">
         <f>IFERROR(VLOOKUP($A52,IF(C52=1,Pre12.11.19!$A$17:$O$40,IF(C52=2,Pre13.11.19!$A$17:$O$40,IF(C52=3,Pre14.11.19!$A$17:$O$40,IF(C52=4,Pre15.11.19!$A$17:$O$40,IF(C52=5,Inc18.11.19!$A$17:$O$40,IF(C52=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21284,7 +21330,7 @@
         <v>155</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C53">
@@ -21292,47 +21338,48 @@
         <v>5</v>
       </c>
       <c r="D53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E53">
+        <f>VLOOKUP($A53,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E53">
-        <f>VLOOKUP($A53,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F53">
+        <v>2019</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G53">
+        <v>11</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I53" s="140">
         <f>VLOOKUP($A53,IF(C53=1,Pre12.11.19!$A$17:$O$40,IF(C53=2,Pre13.11.19!$A$17:$O$40,IF(C53=3,Pre14.11.19!$A$17:$O$40,IF(C53=4,Pre15.11.19!$A$17:$O$40,IF(C53=5,Inc18.11.19!$A$17:$O$40,IF(C53=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J53">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K53">
+        <v>11</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L53">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M53" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M53" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N53" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O53">
         <f>IFERROR(VLOOKUP($A53,IF(C53=1,Pre12.11.19!$A$17:$O$40,IF(C53=2,Pre13.11.19!$A$17:$O$40,IF(C53=3,Pre14.11.19!$A$17:$O$40,IF(C53=4,Pre15.11.19!$A$17:$O$40,IF(C53=5,Inc18.11.19!$A$17:$O$40,IF(C53=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21348,7 +21395,7 @@
         <v>156</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C54">
@@ -21356,47 +21403,48 @@
         <v>5</v>
       </c>
       <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E54">
+        <f>VLOOKUP($A54,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E54">
-        <f>VLOOKUP($A54,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F54">
+        <v>2019</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G54">
+        <v>11</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I54" s="140">
         <f>VLOOKUP($A54,IF(C54=1,Pre12.11.19!$A$17:$O$40,IF(C54=2,Pre13.11.19!$A$17:$O$40,IF(C54=3,Pre14.11.19!$A$17:$O$40,IF(C54=4,Pre15.11.19!$A$17:$O$40,IF(C54=5,Inc18.11.19!$A$17:$O$40,IF(C54=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J54">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K54">
+        <v>11</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L54">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M54" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M54" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N54" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O54">
         <f>IFERROR(VLOOKUP($A54,IF(C54=1,Pre12.11.19!$A$17:$O$40,IF(C54=2,Pre13.11.19!$A$17:$O$40,IF(C54=3,Pre14.11.19!$A$17:$O$40,IF(C54=4,Pre15.11.19!$A$17:$O$40,IF(C54=5,Inc18.11.19!$A$17:$O$40,IF(C54=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21412,7 +21460,7 @@
         <v>157</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C55">
@@ -21420,47 +21468,48 @@
         <v>5</v>
       </c>
       <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E55">
+        <f>VLOOKUP($A55,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E55">
-        <f>VLOOKUP($A55,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F55">
+        <v>2019</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G55">
+        <v>11</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I55" s="140">
         <f>VLOOKUP($A55,IF(C55=1,Pre12.11.19!$A$17:$O$40,IF(C55=2,Pre13.11.19!$A$17:$O$40,IF(C55=3,Pre14.11.19!$A$17:$O$40,IF(C55=4,Pre15.11.19!$A$17:$O$40,IF(C55=5,Inc18.11.19!$A$17:$O$40,IF(C55=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J55">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K55">
+        <v>11</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L55">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M55" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M55" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N55" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O55">
         <f>IFERROR(VLOOKUP($A55,IF(C55=1,Pre12.11.19!$A$17:$O$40,IF(C55=2,Pre13.11.19!$A$17:$O$40,IF(C55=3,Pre14.11.19!$A$17:$O$40,IF(C55=4,Pre15.11.19!$A$17:$O$40,IF(C55=5,Inc18.11.19!$A$17:$O$40,IF(C55=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21476,7 +21525,7 @@
         <v>158</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG10</v>
       </c>
       <c r="C56">
@@ -21484,47 +21533,48 @@
         <v>5</v>
       </c>
       <c r="D56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E56">
+        <f>VLOOKUP($A56,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E56">
-        <f>VLOOKUP($A56,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F56">
+        <v>2019</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G56">
+        <v>11</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I56" s="140">
         <f>VLOOKUP($A56,IF(C56=1,Pre12.11.19!$A$17:$O$40,IF(C56=2,Pre13.11.19!$A$17:$O$40,IF(C56=3,Pre14.11.19!$A$17:$O$40,IF(C56=4,Pre15.11.19!$A$17:$O$40,IF(C56=5,Inc18.11.19!$A$17:$O$40,IF(C56=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J56">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K56">
+        <v>11</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L56">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M56" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M56" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N56" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O56">
         <f>IFERROR(VLOOKUP($A56,IF(C56=1,Pre12.11.19!$A$17:$O$40,IF(C56=2,Pre13.11.19!$A$17:$O$40,IF(C56=3,Pre14.11.19!$A$17:$O$40,IF(C56=4,Pre15.11.19!$A$17:$O$40,IF(C56=5,Inc18.11.19!$A$17:$O$40,IF(C56=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21540,7 +21590,7 @@
         <v>159</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG10</v>
       </c>
       <c r="C57">
@@ -21548,47 +21598,48 @@
         <v>5</v>
       </c>
       <c r="D57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E57">
+        <f>VLOOKUP($A57,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E57">
-        <f>VLOOKUP($A57,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F57">
+        <v>2019</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I57" s="140">
         <f>VLOOKUP($A57,IF(C57=1,Pre12.11.19!$A$17:$O$40,IF(C57=2,Pre13.11.19!$A$17:$O$40,IF(C57=3,Pre14.11.19!$A$17:$O$40,IF(C57=4,Pre15.11.19!$A$17:$O$40,IF(C57=5,Inc18.11.19!$A$17:$O$40,IF(C57=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J57">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K57">
+        <v>11</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L57">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M57" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M57" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N57" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O57">
         <f>IFERROR(VLOOKUP($A57,IF(C57=1,Pre12.11.19!$A$17:$O$40,IF(C57=2,Pre13.11.19!$A$17:$O$40,IF(C57=3,Pre14.11.19!$A$17:$O$40,IF(C57=4,Pre15.11.19!$A$17:$O$40,IF(C57=5,Inc18.11.19!$A$17:$O$40,IF(C57=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21604,7 +21655,7 @@
         <v>160</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG32</v>
       </c>
       <c r="C58">
@@ -21612,47 +21663,48 @@
         <v>5</v>
       </c>
       <c r="D58" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E58">
+        <f>VLOOKUP($A58,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E58">
-        <f>VLOOKUP($A58,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F58">
+        <v>2019</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G58">
+        <v>11</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I58" s="140">
         <f>VLOOKUP($A58,IF(C58=1,Pre12.11.19!$A$17:$O$40,IF(C58=2,Pre13.11.19!$A$17:$O$40,IF(C58=3,Pre14.11.19!$A$17:$O$40,IF(C58=4,Pre15.11.19!$A$17:$O$40,IF(C58=5,Inc18.11.19!$A$17:$O$40,IF(C58=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J58">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K58">
+        <v>11</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L58">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M58" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M58" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N58" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O58">
         <f>IFERROR(VLOOKUP($A58,IF(C58=1,Pre12.11.19!$A$17:$O$40,IF(C58=2,Pre13.11.19!$A$17:$O$40,IF(C58=3,Pre14.11.19!$A$17:$O$40,IF(C58=4,Pre15.11.19!$A$17:$O$40,IF(C58=5,Inc18.11.19!$A$17:$O$40,IF(C58=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21668,7 +21720,7 @@
         <v>161</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG32</v>
       </c>
       <c r="C59">
@@ -21676,47 +21728,48 @@
         <v>5</v>
       </c>
       <c r="D59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E59">
+        <f>VLOOKUP($A59,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E59">
-        <f>VLOOKUP($A59,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F59">
+        <v>2019</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G59">
+        <v>11</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I59" s="140">
         <f>VLOOKUP($A59,IF(C59=1,Pre12.11.19!$A$17:$O$40,IF(C59=2,Pre13.11.19!$A$17:$O$40,IF(C59=3,Pre14.11.19!$A$17:$O$40,IF(C59=4,Pre15.11.19!$A$17:$O$40,IF(C59=5,Inc18.11.19!$A$17:$O$40,IF(C59=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J59">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K59">
+        <v>11</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L59">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M59" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M59" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N59" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O59">
         <f>IFERROR(VLOOKUP($A59,IF(C59=1,Pre12.11.19!$A$17:$O$40,IF(C59=2,Pre13.11.19!$A$17:$O$40,IF(C59=3,Pre14.11.19!$A$17:$O$40,IF(C59=4,Pre15.11.19!$A$17:$O$40,IF(C59=5,Inc18.11.19!$A$17:$O$40,IF(C59=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21732,7 +21785,7 @@
         <v>162</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG48</v>
       </c>
       <c r="C60">
@@ -21740,47 +21793,48 @@
         <v>5</v>
       </c>
       <c r="D60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E60">
+        <f>VLOOKUP($A60,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E60">
-        <f>VLOOKUP($A60,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F60">
+        <v>2019</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G60">
+        <v>11</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I60" s="140">
         <f>VLOOKUP($A60,IF(C60=1,Pre12.11.19!$A$17:$O$40,IF(C60=2,Pre13.11.19!$A$17:$O$40,IF(C60=3,Pre14.11.19!$A$17:$O$40,IF(C60=4,Pre15.11.19!$A$17:$O$40,IF(C60=5,Inc18.11.19!$A$17:$O$40,IF(C60=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J60">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K60">
+        <v>11</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L60">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M60" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M60" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N60" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O60">
         <f>IFERROR(VLOOKUP($A60,IF(C60=1,Pre12.11.19!$A$17:$O$40,IF(C60=2,Pre13.11.19!$A$17:$O$40,IF(C60=3,Pre14.11.19!$A$17:$O$40,IF(C60=4,Pre15.11.19!$A$17:$O$40,IF(C60=5,Inc18.11.19!$A$17:$O$40,IF(C60=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21796,7 +21850,7 @@
         <v>163</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEG48</v>
       </c>
       <c r="C61">
@@ -21804,47 +21858,48 @@
         <v>5</v>
       </c>
       <c r="D61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E61">
+        <f>VLOOKUP($A61,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E61">
-        <f>VLOOKUP($A61,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F61">
+        <v>2019</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G61">
+        <v>11</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I61" s="140">
         <f>VLOOKUP($A61,IF(C61=1,Pre12.11.19!$A$17:$O$40,IF(C61=2,Pre13.11.19!$A$17:$O$40,IF(C61=3,Pre14.11.19!$A$17:$O$40,IF(C61=4,Pre15.11.19!$A$17:$O$40,IF(C61=5,Inc18.11.19!$A$17:$O$40,IF(C61=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43787.416666666664</v>
       </c>
       <c r="J61">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K61">
+        <v>11</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L61">
+        <v>18.416666666664241</v>
+      </c>
+      <c r="M61" t="str">
         <f t="shared" si="9"/>
-        <v>18.416666666664241</v>
-      </c>
-      <c r="M61" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N61" s="10">
         <f t="shared" si="10"/>
-        <v>6.75</v>
+        <v>2.7916666666642413</v>
       </c>
       <c r="O61">
         <f>IFERROR(VLOOKUP($A61,IF(C61=1,Pre12.11.19!$A$17:$O$40,IF(C61=2,Pre13.11.19!$A$17:$O$40,IF(C61=3,Pre14.11.19!$A$17:$O$40,IF(C61=4,Pre15.11.19!$A$17:$O$40,IF(C61=5,Inc18.11.19!$A$17:$O$40,IF(C61=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21860,54 +21915,55 @@
         <v>152</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW22</v>
       </c>
       <c r="C62">
         <v>6</v>
       </c>
       <c r="D62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E62">
+        <f>VLOOKUP($A62,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E62">
-        <f>VLOOKUP($A62,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F62">
+        <v>2019</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G62">
+        <v>11</v>
+      </c>
+      <c r="H62">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I62" s="140">
         <f>VLOOKUP($A62,IF(C62=1,Pre12.11.19!$A$17:$O$40,IF(C62=2,Pre13.11.19!$A$17:$O$40,IF(C62=3,Pre14.11.19!$A$17:$O$40,IF(C62=4,Pre15.11.19!$A$17:$O$40,IF(C62=5,Inc18.11.19!$A$17:$O$40,IF(C62=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43790.6875</v>
       </c>
       <c r="J62">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K62">
+        <v>11</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L62">
+        <v>21.6875</v>
+      </c>
+      <c r="M62" t="str">
         <f t="shared" si="9"/>
-        <v>21.6875</v>
-      </c>
-      <c r="M62" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N62" s="10">
         <f t="shared" si="10"/>
-        <v>10.020833333335759</v>
+        <v>6.0625</v>
       </c>
       <c r="O62">
         <f>IFERROR(VLOOKUP($A62,IF(C62=1,Pre12.11.19!$A$17:$O$40,IF(C62=2,Pre13.11.19!$A$17:$O$40,IF(C62=3,Pre14.11.19!$A$17:$O$40,IF(C62=4,Pre15.11.19!$A$17:$O$40,IF(C62=5,Inc18.11.19!$A$17:$O$40,IF(C62=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21923,7 +21979,7 @@
         <v>153</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW22</v>
       </c>
       <c r="C63">
@@ -21931,47 +21987,48 @@
         <v>6</v>
       </c>
       <c r="D63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E63">
+        <f>VLOOKUP($A63,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E63">
-        <f>VLOOKUP($A63,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F63">
+        <v>2019</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G63">
+        <v>11</v>
+      </c>
+      <c r="H63">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I63" s="140">
         <f>VLOOKUP($A63,IF(C63=1,Pre12.11.19!$A$17:$O$40,IF(C63=2,Pre13.11.19!$A$17:$O$40,IF(C63=3,Pre14.11.19!$A$17:$O$40,IF(C63=4,Pre15.11.19!$A$17:$O$40,IF(C63=5,Inc18.11.19!$A$17:$O$40,IF(C63=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43790.6875</v>
       </c>
       <c r="J63">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K63">
+        <v>11</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L63">
+        <v>21.6875</v>
+      </c>
+      <c r="M63" t="str">
         <f t="shared" si="9"/>
-        <v>21.6875</v>
-      </c>
-      <c r="M63" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N63" s="10">
         <f t="shared" si="10"/>
-        <v>10.020833333335759</v>
+        <v>6.0625</v>
       </c>
       <c r="O63">
         <f>IFERROR(VLOOKUP($A63,IF(C63=1,Pre12.11.19!$A$17:$O$40,IF(C63=2,Pre13.11.19!$A$17:$O$40,IF(C63=3,Pre14.11.19!$A$17:$O$40,IF(C63=4,Pre15.11.19!$A$17:$O$40,IF(C63=5,Inc18.11.19!$A$17:$O$40,IF(C63=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -21987,7 +22044,7 @@
         <v>154</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C64">
@@ -21995,47 +22052,48 @@
         <v>6</v>
       </c>
       <c r="D64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E64">
+        <f>VLOOKUP($A64,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E64">
-        <f>VLOOKUP($A64,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F64">
+        <v>2019</v>
+      </c>
+      <c r="G64">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G64">
+        <v>11</v>
+      </c>
+      <c r="H64">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I64" s="140">
         <f>VLOOKUP($A64,IF(C64=1,Pre12.11.19!$A$17:$O$40,IF(C64=2,Pre13.11.19!$A$17:$O$40,IF(C64=3,Pre14.11.19!$A$17:$O$40,IF(C64=4,Pre15.11.19!$A$17:$O$40,IF(C64=5,Inc18.11.19!$A$17:$O$40,IF(C64=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43790.6875</v>
       </c>
       <c r="J64">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K64">
+        <v>11</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L64">
+        <v>21.6875</v>
+      </c>
+      <c r="M64" t="str">
         <f t="shared" si="9"/>
-        <v>21.6875</v>
-      </c>
-      <c r="M64" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N64" s="10">
         <f t="shared" si="10"/>
-        <v>10.020833333335759</v>
+        <v>6.0625</v>
       </c>
       <c r="O64">
         <f>IFERROR(VLOOKUP($A64,IF(C64=1,Pre12.11.19!$A$17:$O$40,IF(C64=2,Pre13.11.19!$A$17:$O$40,IF(C64=3,Pre14.11.19!$A$17:$O$40,IF(C64=4,Pre15.11.19!$A$17:$O$40,IF(C64=5,Inc18.11.19!$A$17:$O$40,IF(C64=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -22051,7 +22109,7 @@
         <v>155</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW41</v>
       </c>
       <c r="C65">
@@ -22059,47 +22117,48 @@
         <v>6</v>
       </c>
       <c r="D65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E65">
+        <f>VLOOKUP($A65,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E65">
-        <f>VLOOKUP($A65,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F65">
+        <v>2019</v>
+      </c>
+      <c r="G65">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G65">
+        <v>11</v>
+      </c>
+      <c r="H65">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I65" s="140">
         <f>VLOOKUP($A65,IF(C65=1,Pre12.11.19!$A$17:$O$40,IF(C65=2,Pre13.11.19!$A$17:$O$40,IF(C65=3,Pre14.11.19!$A$17:$O$40,IF(C65=4,Pre15.11.19!$A$17:$O$40,IF(C65=5,Inc18.11.19!$A$17:$O$40,IF(C65=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43790.6875</v>
       </c>
       <c r="J65">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K65">
+        <v>11</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L65">
+        <v>21.6875</v>
+      </c>
+      <c r="M65" t="str">
         <f t="shared" si="9"/>
-        <v>21.6875</v>
-      </c>
-      <c r="M65" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N65" s="10">
         <f t="shared" si="10"/>
-        <v>10.020833333335759</v>
+        <v>6.0625</v>
       </c>
       <c r="O65">
         <f>IFERROR(VLOOKUP($A65,IF(C65=1,Pre12.11.19!$A$17:$O$40,IF(C65=2,Pre13.11.19!$A$17:$O$40,IF(C65=3,Pre14.11.19!$A$17:$O$40,IF(C65=4,Pre15.11.19!$A$17:$O$40,IF(C65=5,Inc18.11.19!$A$17:$O$40,IF(C65=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -22115,7 +22174,7 @@
         <v>156</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>HEW42</v>
       </c>
       <c r="C66">
@@ -22123,47 +22182,48 @@
         <v>6</v>
       </c>
       <c r="D66" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E66">
+        <f>VLOOKUP($A66,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E66">
-        <f>VLOOKUP($A66,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
-      </c>
-      <c r="F66">
+        <v>2019</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="4"/>
-        <v>2019</v>
-      </c>
-      <c r="G66">
+        <v>11</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="6"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I66" s="140">
         <f>VLOOKUP($A66,IF(C66=1,Pre12.11.19!$A$17:$O$40,IF(C66=2,Pre13.11.19!$A$17:$O$40,IF(C66=3,Pre14.11.19!$A$17:$O$40,IF(C66=4,Pre15.11.19!$A$17:$O$40,IF(C66=5,Inc18.11.19!$A$17:$O$40,IF(C66=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
         <v>43790.6875</v>
       </c>
       <c r="J66">
+        <f t="shared" si="6"/>
+        <v>2019</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="K66">
+        <v>11</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="L66">
+        <v>21.6875</v>
+      </c>
+      <c r="M66" t="str">
         <f t="shared" si="9"/>
-        <v>21.6875</v>
-      </c>
-      <c r="M66" t="s">
-        <v>351</v>
+        <v>inc</v>
       </c>
       <c r="N66" s="10">
         <f t="shared" si="10"/>
-        <v>10.020833333335759</v>
+        <v>6.0625</v>
       </c>
       <c r="O66">
         <f>IFERROR(VLOOKUP($A66,IF(C66=1,Pre12.11.19!$A$17:$O$40,IF(C66=2,Pre13.11.19!$A$17:$O$40,IF(C66=3,Pre14.11.19!$A$17:$O$40,IF(C66=4,Pre15.11.19!$A$17:$O$40,IF(C66=5,Inc18.11.19!$A$17:$O$40,IF(C66=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
@@ -22191,8 +22251,8 @@
         <v/>
       </c>
       <c r="E67">
-        <f>VLOOKUP($A67,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A67,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F85" si="20">YEAR(E67)</f>
@@ -22204,7 +22264,7 @@
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H85" si="22">DAY(E67)+E67-ROUNDDOWN(E67,0)</f>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I67" s="140">
         <f>VLOOKUP($A67,IF(C67=1,Pre12.11.19!$A$17:$O$40,IF(C67=2,Pre13.11.19!$A$17:$O$40,IF(C67=3,Pre14.11.19!$A$17:$O$40,IF(C67=4,Pre15.11.19!$A$17:$O$40,IF(C67=5,Inc18.11.19!$A$17:$O$40,IF(C67=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22222,19 +22282,20 @@
         <f t="shared" ref="L67:L85" si="25">DAY(I67)+I67-ROUNDDOWN(I67,0)</f>
         <v>21.6875</v>
       </c>
-      <c r="M67" t="s">
-        <v>351</v>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M85" si="26">IF(C67&lt;5,"pre","inc")</f>
+        <v>inc</v>
       </c>
       <c r="N67" s="10">
-        <f t="shared" ref="N67:N85" si="26">I67-E67</f>
-        <v>10.020833333335759</v>
+        <f t="shared" ref="N67:N85" si="27">I67-E67</f>
+        <v>6.0625</v>
       </c>
       <c r="O67">
         <f>IFERROR(VLOOKUP($A67,IF(C67=1,Pre12.11.19!$A$17:$O$40,IF(C67=2,Pre13.11.19!$A$17:$O$40,IF(C67=3,Pre14.11.19!$A$17:$O$40,IF(C67=4,Pre15.11.19!$A$17:$O$40,IF(C67=5,Inc18.11.19!$A$17:$O$40,IF(C67=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>11.077381176768343</v>
       </c>
       <c r="P67" s="10">
-        <f t="shared" ref="P67:P85" si="27">IF(M67="pre",N67,I67-E67)</f>
+        <f t="shared" ref="P67:P85" si="28">IF(M67="pre",N67,I67-VLOOKUP(A67,$A$2:$E$13,5,FALSE))</f>
         <v>10.020833333335759</v>
       </c>
     </row>
@@ -22255,8 +22316,8 @@
         <v/>
       </c>
       <c r="E68">
-        <f>VLOOKUP($A68,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A68,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F68">
         <f t="shared" si="20"/>
@@ -22268,7 +22329,7 @@
       </c>
       <c r="H68">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I68" s="140">
         <f>VLOOKUP($A68,IF(C68=1,Pre12.11.19!$A$17:$O$40,IF(C68=2,Pre13.11.19!$A$17:$O$40,IF(C68=3,Pre14.11.19!$A$17:$O$40,IF(C68=4,Pre15.11.19!$A$17:$O$40,IF(C68=5,Inc18.11.19!$A$17:$O$40,IF(C68=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22286,19 +22347,20 @@
         <f t="shared" si="25"/>
         <v>21.6875</v>
       </c>
-      <c r="M68" t="s">
-        <v>351</v>
+      <c r="M68" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N68" s="10">
-        <f t="shared" si="26"/>
-        <v>10.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>6.0625</v>
       </c>
       <c r="O68">
         <f>IFERROR(VLOOKUP($A68,IF(C68=1,Pre12.11.19!$A$17:$O$40,IF(C68=2,Pre13.11.19!$A$17:$O$40,IF(C68=3,Pre14.11.19!$A$17:$O$40,IF(C68=4,Pre15.11.19!$A$17:$O$40,IF(C68=5,Inc18.11.19!$A$17:$O$40,IF(C68=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>18.932492730936023</v>
       </c>
       <c r="P68" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10.020833333335759</v>
       </c>
     </row>
@@ -22319,8 +22381,8 @@
         <v/>
       </c>
       <c r="E69">
-        <f>VLOOKUP($A69,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A69,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F69">
         <f t="shared" si="20"/>
@@ -22332,7 +22394,7 @@
       </c>
       <c r="H69">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I69" s="140">
         <f>VLOOKUP($A69,IF(C69=1,Pre12.11.19!$A$17:$O$40,IF(C69=2,Pre13.11.19!$A$17:$O$40,IF(C69=3,Pre14.11.19!$A$17:$O$40,IF(C69=4,Pre15.11.19!$A$17:$O$40,IF(C69=5,Inc18.11.19!$A$17:$O$40,IF(C69=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22350,19 +22412,20 @@
         <f t="shared" si="25"/>
         <v>21.6875</v>
       </c>
-      <c r="M69" t="s">
-        <v>351</v>
+      <c r="M69" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N69" s="10">
-        <f t="shared" si="26"/>
-        <v>10.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>6.0625</v>
       </c>
       <c r="O69">
         <f>IFERROR(VLOOKUP($A69,IF(C69=1,Pre12.11.19!$A$17:$O$40,IF(C69=2,Pre13.11.19!$A$17:$O$40,IF(C69=3,Pre14.11.19!$A$17:$O$40,IF(C69=4,Pre15.11.19!$A$17:$O$40,IF(C69=5,Inc18.11.19!$A$17:$O$40,IF(C69=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>16.677583311240046</v>
       </c>
       <c r="P69" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10.020833333335759</v>
       </c>
     </row>
@@ -22383,8 +22446,8 @@
         <v/>
       </c>
       <c r="E70">
-        <f>VLOOKUP($A70,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A70,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F70">
         <f t="shared" si="20"/>
@@ -22396,7 +22459,7 @@
       </c>
       <c r="H70">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I70" s="140">
         <f>VLOOKUP($A70,IF(C70=1,Pre12.11.19!$A$17:$O$40,IF(C70=2,Pre13.11.19!$A$17:$O$40,IF(C70=3,Pre14.11.19!$A$17:$O$40,IF(C70=4,Pre15.11.19!$A$17:$O$40,IF(C70=5,Inc18.11.19!$A$17:$O$40,IF(C70=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22414,19 +22477,20 @@
         <f t="shared" si="25"/>
         <v>21.6875</v>
       </c>
-      <c r="M70" t="s">
-        <v>351</v>
+      <c r="M70" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N70" s="10">
-        <f t="shared" si="26"/>
-        <v>10.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>6.0625</v>
       </c>
       <c r="O70">
         <f>IFERROR(VLOOKUP($A70,IF(C70=1,Pre12.11.19!$A$17:$O$40,IF(C70=2,Pre13.11.19!$A$17:$O$40,IF(C70=3,Pre14.11.19!$A$17:$O$40,IF(C70=4,Pre15.11.19!$A$17:$O$40,IF(C70=5,Inc18.11.19!$A$17:$O$40,IF(C70=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>24.517452288207508</v>
       </c>
       <c r="P70" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10.020833333335759</v>
       </c>
     </row>
@@ -22447,8 +22511,8 @@
         <v/>
       </c>
       <c r="E71">
-        <f>VLOOKUP($A71,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A71,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F71">
         <f t="shared" si="20"/>
@@ -22460,7 +22524,7 @@
       </c>
       <c r="H71">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I71" s="140">
         <f>VLOOKUP($A71,IF(C71=1,Pre12.11.19!$A$17:$O$40,IF(C71=2,Pre13.11.19!$A$17:$O$40,IF(C71=3,Pre14.11.19!$A$17:$O$40,IF(C71=4,Pre15.11.19!$A$17:$O$40,IF(C71=5,Inc18.11.19!$A$17:$O$40,IF(C71=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22478,19 +22542,20 @@
         <f t="shared" si="25"/>
         <v>21.6875</v>
       </c>
-      <c r="M71" t="s">
-        <v>351</v>
+      <c r="M71" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N71" s="10">
-        <f t="shared" si="26"/>
-        <v>10.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>6.0625</v>
       </c>
       <c r="O71">
         <f>IFERROR(VLOOKUP($A71,IF(C71=1,Pre12.11.19!$A$17:$O$40,IF(C71=2,Pre13.11.19!$A$17:$O$40,IF(C71=3,Pre14.11.19!$A$17:$O$40,IF(C71=4,Pre15.11.19!$A$17:$O$40,IF(C71=5,Inc18.11.19!$A$17:$O$40,IF(C71=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>21.033953416066208</v>
       </c>
       <c r="P71" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10.020833333335759</v>
       </c>
     </row>
@@ -22511,8 +22576,8 @@
         <v/>
       </c>
       <c r="E72">
-        <f>VLOOKUP($A72,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A72,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F72">
         <f t="shared" si="20"/>
@@ -22524,7 +22589,7 @@
       </c>
       <c r="H72">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I72" s="140">
         <f>VLOOKUP($A72,IF(C72=1,Pre12.11.19!$A$17:$O$40,IF(C72=2,Pre13.11.19!$A$17:$O$40,IF(C72=3,Pre14.11.19!$A$17:$O$40,IF(C72=4,Pre15.11.19!$A$17:$O$40,IF(C72=5,Inc18.11.19!$A$17:$O$40,IF(C72=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22542,19 +22607,20 @@
         <f t="shared" si="25"/>
         <v>21.6875</v>
       </c>
-      <c r="M72" t="s">
-        <v>351</v>
+      <c r="M72" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N72" s="10">
-        <f t="shared" si="26"/>
-        <v>10.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>6.0625</v>
       </c>
       <c r="O72">
         <f>IFERROR(VLOOKUP($A72,IF(C72=1,Pre12.11.19!$A$17:$O$40,IF(C72=2,Pre13.11.19!$A$17:$O$40,IF(C72=3,Pre14.11.19!$A$17:$O$40,IF(C72=4,Pre15.11.19!$A$17:$O$40,IF(C72=5,Inc18.11.19!$A$17:$O$40,IF(C72=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>22.762341677236666</v>
       </c>
       <c r="P72" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10.020833333335759</v>
       </c>
     </row>
@@ -22575,8 +22641,8 @@
         <v/>
       </c>
       <c r="E73">
-        <f>VLOOKUP($A73,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A73,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F73">
         <f t="shared" si="20"/>
@@ -22588,7 +22654,7 @@
       </c>
       <c r="H73">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I73" s="140">
         <f>VLOOKUP($A73,IF(C73=1,Pre12.11.19!$A$17:$O$40,IF(C73=2,Pre13.11.19!$A$17:$O$40,IF(C73=3,Pre14.11.19!$A$17:$O$40,IF(C73=4,Pre15.11.19!$A$17:$O$40,IF(C73=5,Inc18.11.19!$A$17:$O$40,IF(C73=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22606,19 +22672,20 @@
         <f t="shared" si="25"/>
         <v>21.6875</v>
       </c>
-      <c r="M73" t="s">
-        <v>351</v>
+      <c r="M73" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N73" s="10">
-        <f t="shared" si="26"/>
-        <v>10.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>6.0625</v>
       </c>
       <c r="O73">
         <f>IFERROR(VLOOKUP($A73,IF(C73=1,Pre12.11.19!$A$17:$O$40,IF(C73=2,Pre13.11.19!$A$17:$O$40,IF(C73=3,Pre14.11.19!$A$17:$O$40,IF(C73=4,Pre15.11.19!$A$17:$O$40,IF(C73=5,Inc18.11.19!$A$17:$O$40,IF(C73=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>21.931948653044138</v>
       </c>
       <c r="P73" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10.020833333335759</v>
       </c>
     </row>
@@ -22638,8 +22705,8 @@
         <v/>
       </c>
       <c r="E74">
-        <f>VLOOKUP($A74,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A74,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F74">
         <f t="shared" si="20"/>
@@ -22651,7 +22718,7 @@
       </c>
       <c r="H74">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I74" s="140">
         <f>VLOOKUP($A74,IF(C74=1,Pre12.11.19!$A$17:$O$40,IF(C74=2,Pre13.11.19!$A$17:$O$40,IF(C74=3,Pre14.11.19!$A$17:$O$40,IF(C74=4,Pre15.11.19!$A$17:$O$40,IF(C74=5,Inc18.11.19!$A$17:$O$40,IF(C74=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22669,19 +22736,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M74" t="s">
-        <v>351</v>
+      <c r="M74" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N74" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O74">
         <f>IFERROR(VLOOKUP($A74,IF(C74=1,Pre12.11.19!$A$17:$O$40,IF(C74=2,Pre13.11.19!$A$17:$O$40,IF(C74=3,Pre14.11.19!$A$17:$O$40,IF(C74=4,Pre15.11.19!$A$17:$O$40,IF(C74=5,Inc18.11.19!$A$17:$O$40,IF(C74=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>16.15620302130862</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -22694,7 +22762,7 @@
         <v>HEW22</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75" si="28">C74</f>
+        <f t="shared" ref="C75" si="29">C74</f>
         <v>7</v>
       </c>
       <c r="D75" t="str">
@@ -22702,8 +22770,8 @@
         <v/>
       </c>
       <c r="E75">
-        <f>VLOOKUP($A75,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A75,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F75">
         <f t="shared" si="20"/>
@@ -22715,7 +22783,7 @@
       </c>
       <c r="H75">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I75" s="140">
         <f>VLOOKUP($A75,IF(C75=1,Pre12.11.19!$A$17:$O$40,IF(C75=2,Pre13.11.19!$A$17:$O$40,IF(C75=3,Pre14.11.19!$A$17:$O$40,IF(C75=4,Pre15.11.19!$A$17:$O$40,IF(C75=5,Inc18.11.19!$A$17:$O$40,IF(C75=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22733,19 +22801,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M75" t="s">
-        <v>351</v>
+      <c r="M75" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N75" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O75">
         <f>IFERROR(VLOOKUP($A75,IF(C75=1,Pre12.11.19!$A$17:$O$40,IF(C75=2,Pre13.11.19!$A$17:$O$40,IF(C75=3,Pre14.11.19!$A$17:$O$40,IF(C75=4,Pre15.11.19!$A$17:$O$40,IF(C75=5,Inc18.11.19!$A$17:$O$40,IF(C75=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>19.126418923540847</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -22766,8 +22835,8 @@
         <v/>
       </c>
       <c r="E76">
-        <f>VLOOKUP($A76,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A76,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F76">
         <f t="shared" si="20"/>
@@ -22779,7 +22848,7 @@
       </c>
       <c r="H76">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I76" s="140">
         <f>VLOOKUP($A76,IF(C76=1,Pre12.11.19!$A$17:$O$40,IF(C76=2,Pre13.11.19!$A$17:$O$40,IF(C76=3,Pre14.11.19!$A$17:$O$40,IF(C76=4,Pre15.11.19!$A$17:$O$40,IF(C76=5,Inc18.11.19!$A$17:$O$40,IF(C76=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22797,19 +22866,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M76" t="s">
-        <v>351</v>
+      <c r="M76" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N76" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O76">
         <f>IFERROR(VLOOKUP($A76,IF(C76=1,Pre12.11.19!$A$17:$O$40,IF(C76=2,Pre13.11.19!$A$17:$O$40,IF(C76=3,Pre14.11.19!$A$17:$O$40,IF(C76=4,Pre15.11.19!$A$17:$O$40,IF(C76=5,Inc18.11.19!$A$17:$O$40,IF(C76=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>18.014693307734333</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -22830,8 +22900,8 @@
         <v/>
       </c>
       <c r="E77">
-        <f>VLOOKUP($A77,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A77,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F77">
         <f t="shared" si="20"/>
@@ -22843,7 +22913,7 @@
       </c>
       <c r="H77">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I77" s="140">
         <f>VLOOKUP($A77,IF(C77=1,Pre12.11.19!$A$17:$O$40,IF(C77=2,Pre13.11.19!$A$17:$O$40,IF(C77=3,Pre14.11.19!$A$17:$O$40,IF(C77=4,Pre15.11.19!$A$17:$O$40,IF(C77=5,Inc18.11.19!$A$17:$O$40,IF(C77=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22861,19 +22931,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M77" t="s">
-        <v>351</v>
+      <c r="M77" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N77" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O77">
         <f>IFERROR(VLOOKUP($A77,IF(C77=1,Pre12.11.19!$A$17:$O$40,IF(C77=2,Pre13.11.19!$A$17:$O$40,IF(C77=3,Pre14.11.19!$A$17:$O$40,IF(C77=4,Pre15.11.19!$A$17:$O$40,IF(C77=5,Inc18.11.19!$A$17:$O$40,IF(C77=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>20.563466901882393</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -22894,8 +22965,8 @@
         <v/>
       </c>
       <c r="E78">
-        <f>VLOOKUP($A78,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A78,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F78">
         <f t="shared" si="20"/>
@@ -22907,7 +22978,7 @@
       </c>
       <c r="H78">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I78" s="140">
         <f>VLOOKUP($A78,IF(C78=1,Pre12.11.19!$A$17:$O$40,IF(C78=2,Pre13.11.19!$A$17:$O$40,IF(C78=3,Pre14.11.19!$A$17:$O$40,IF(C78=4,Pre15.11.19!$A$17:$O$40,IF(C78=5,Inc18.11.19!$A$17:$O$40,IF(C78=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22925,19 +22996,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M78" t="s">
-        <v>351</v>
+      <c r="M78" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N78" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O78">
         <f>IFERROR(VLOOKUP($A78,IF(C78=1,Pre12.11.19!$A$17:$O$40,IF(C78=2,Pre13.11.19!$A$17:$O$40,IF(C78=3,Pre14.11.19!$A$17:$O$40,IF(C78=4,Pre15.11.19!$A$17:$O$40,IF(C78=5,Inc18.11.19!$A$17:$O$40,IF(C78=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>13.09401931239459</v>
       </c>
       <c r="P78" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -22950,7 +23022,7 @@
         <v>HEW42</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:C85" si="29">C78</f>
+        <f t="shared" ref="C79:C85" si="30">C78</f>
         <v>7</v>
       </c>
       <c r="D79" t="str">
@@ -22958,8 +23030,8 @@
         <v/>
       </c>
       <c r="E79">
-        <f>VLOOKUP($A79,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A79,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F79">
         <f t="shared" si="20"/>
@@ -22971,7 +23043,7 @@
       </c>
       <c r="H79">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I79" s="140">
         <f>VLOOKUP($A79,IF(C79=1,Pre12.11.19!$A$17:$O$40,IF(C79=2,Pre13.11.19!$A$17:$O$40,IF(C79=3,Pre14.11.19!$A$17:$O$40,IF(C79=4,Pre15.11.19!$A$17:$O$40,IF(C79=5,Inc18.11.19!$A$17:$O$40,IF(C79=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -22989,19 +23061,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M79" t="s">
-        <v>351</v>
+      <c r="M79" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N79" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O79">
         <f>IFERROR(VLOOKUP($A79,IF(C79=1,Pre12.11.19!$A$17:$O$40,IF(C79=2,Pre13.11.19!$A$17:$O$40,IF(C79=3,Pre14.11.19!$A$17:$O$40,IF(C79=4,Pre15.11.19!$A$17:$O$40,IF(C79=5,Inc18.11.19!$A$17:$O$40,IF(C79=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>14.268877643626949</v>
       </c>
       <c r="P79" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -23014,7 +23087,7 @@
         <v>HEG10</v>
       </c>
       <c r="C80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="D80" t="str">
@@ -23022,8 +23095,8 @@
         <v/>
       </c>
       <c r="E80">
-        <f>VLOOKUP($A80,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A80,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F80">
         <f t="shared" si="20"/>
@@ -23035,7 +23108,7 @@
       </c>
       <c r="H80">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I80" s="140">
         <f>VLOOKUP($A80,IF(C80=1,Pre12.11.19!$A$17:$O$40,IF(C80=2,Pre13.11.19!$A$17:$O$40,IF(C80=3,Pre14.11.19!$A$17:$O$40,IF(C80=4,Pre15.11.19!$A$17:$O$40,IF(C80=5,Inc18.11.19!$A$17:$O$40,IF(C80=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -23053,19 +23126,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M80" t="s">
-        <v>351</v>
+      <c r="M80" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N80" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O80">
         <f>IFERROR(VLOOKUP($A80,IF(C80=1,Pre12.11.19!$A$17:$O$40,IF(C80=2,Pre13.11.19!$A$17:$O$40,IF(C80=3,Pre14.11.19!$A$17:$O$40,IF(C80=4,Pre15.11.19!$A$17:$O$40,IF(C80=5,Inc18.11.19!$A$17:$O$40,IF(C80=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>24.664045912852309</v>
       </c>
       <c r="P80" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -23078,7 +23152,7 @@
         <v>HEG10</v>
       </c>
       <c r="C81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="D81" t="str">
@@ -23086,8 +23160,8 @@
         <v/>
       </c>
       <c r="E81">
-        <f>VLOOKUP($A81,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A81,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F81">
         <f t="shared" si="20"/>
@@ -23099,7 +23173,7 @@
       </c>
       <c r="H81">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I81" s="140">
         <f>VLOOKUP($A81,IF(C81=1,Pre12.11.19!$A$17:$O$40,IF(C81=2,Pre13.11.19!$A$17:$O$40,IF(C81=3,Pre14.11.19!$A$17:$O$40,IF(C81=4,Pre15.11.19!$A$17:$O$40,IF(C81=5,Inc18.11.19!$A$17:$O$40,IF(C81=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -23117,19 +23191,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M81" t="s">
-        <v>351</v>
+      <c r="M81" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N81" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O81">
         <f>IFERROR(VLOOKUP($A81,IF(C81=1,Pre12.11.19!$A$17:$O$40,IF(C81=2,Pre13.11.19!$A$17:$O$40,IF(C81=3,Pre14.11.19!$A$17:$O$40,IF(C81=4,Pre15.11.19!$A$17:$O$40,IF(C81=5,Inc18.11.19!$A$17:$O$40,IF(C81=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>20.327810824902489</v>
       </c>
       <c r="P81" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -23142,7 +23217,7 @@
         <v>HEG32</v>
       </c>
       <c r="C82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="D82" t="str">
@@ -23150,8 +23225,8 @@
         <v/>
       </c>
       <c r="E82">
-        <f>VLOOKUP($A82,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A82,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F82">
         <f t="shared" si="20"/>
@@ -23163,7 +23238,7 @@
       </c>
       <c r="H82">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I82" s="140">
         <f>VLOOKUP($A82,IF(C82=1,Pre12.11.19!$A$17:$O$40,IF(C82=2,Pre13.11.19!$A$17:$O$40,IF(C82=3,Pre14.11.19!$A$17:$O$40,IF(C82=4,Pre15.11.19!$A$17:$O$40,IF(C82=5,Inc18.11.19!$A$17:$O$40,IF(C82=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -23181,19 +23256,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M82" t="s">
-        <v>351</v>
+      <c r="M82" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N82" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O82">
         <f>IFERROR(VLOOKUP($A82,IF(C82=1,Pre12.11.19!$A$17:$O$40,IF(C82=2,Pre13.11.19!$A$17:$O$40,IF(C82=3,Pre14.11.19!$A$17:$O$40,IF(C82=4,Pre15.11.19!$A$17:$O$40,IF(C82=5,Inc18.11.19!$A$17:$O$40,IF(C82=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>30.007300139407178</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -23206,7 +23282,7 @@
         <v>HEG32</v>
       </c>
       <c r="C83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="D83" t="str">
@@ -23214,8 +23290,8 @@
         <v/>
       </c>
       <c r="E83">
-        <f>VLOOKUP($A83,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A83,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F83">
         <f t="shared" si="20"/>
@@ -23227,7 +23303,7 @@
       </c>
       <c r="H83">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I83" s="140">
         <f>VLOOKUP($A83,IF(C83=1,Pre12.11.19!$A$17:$O$40,IF(C83=2,Pre13.11.19!$A$17:$O$40,IF(C83=3,Pre14.11.19!$A$17:$O$40,IF(C83=4,Pre15.11.19!$A$17:$O$40,IF(C83=5,Inc18.11.19!$A$17:$O$40,IF(C83=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -23245,19 +23321,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M83" t="s">
-        <v>351</v>
+      <c r="M83" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N83" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O83">
         <f>IFERROR(VLOOKUP($A83,IF(C83=1,Pre12.11.19!$A$17:$O$40,IF(C83=2,Pre13.11.19!$A$17:$O$40,IF(C83=3,Pre14.11.19!$A$17:$O$40,IF(C83=4,Pre15.11.19!$A$17:$O$40,IF(C83=5,Inc18.11.19!$A$17:$O$40,IF(C83=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>26.321685689341226</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -23270,7 +23347,7 @@
         <v>HEG48</v>
       </c>
       <c r="C84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="D84" t="str">
@@ -23278,8 +23355,8 @@
         <v/>
       </c>
       <c r="E84">
-        <f>VLOOKUP($A84,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A84,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F84">
         <f t="shared" si="20"/>
@@ -23291,7 +23368,7 @@
       </c>
       <c r="H84">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I84" s="140">
         <f>VLOOKUP($A84,IF(C84=1,Pre12.11.19!$A$17:$O$40,IF(C84=2,Pre13.11.19!$A$17:$O$40,IF(C84=3,Pre14.11.19!$A$17:$O$40,IF(C84=4,Pre15.11.19!$A$17:$O$40,IF(C84=5,Inc18.11.19!$A$17:$O$40,IF(C84=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -23309,19 +23386,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M84" t="s">
-        <v>351</v>
+      <c r="M84" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N84" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O84">
         <f>IFERROR(VLOOKUP($A84,IF(C84=1,Pre12.11.19!$A$17:$O$40,IF(C84=2,Pre13.11.19!$A$17:$O$40,IF(C84=3,Pre14.11.19!$A$17:$O$40,IF(C84=4,Pre15.11.19!$A$17:$O$40,IF(C84=5,Inc18.11.19!$A$17:$O$40,IF(C84=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>27.765416725895101</v>
       </c>
       <c r="P84" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -23334,7 +23412,7 @@
         <v>HEG48</v>
       </c>
       <c r="C85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="D85" t="str">
@@ -23342,8 +23420,8 @@
         <v/>
       </c>
       <c r="E85">
-        <f>VLOOKUP($A85,Pre12.11.19!$A$17:$N$29,9,FALSE)</f>
-        <v>43780.666666666664</v>
+        <f>VLOOKUP($A85,Inc18.11.19!$A$18:$I$29,9,FALSE)</f>
+        <v>43784.625</v>
       </c>
       <c r="F85">
         <f t="shared" si="20"/>
@@ -23355,7 +23433,7 @@
       </c>
       <c r="H85">
         <f t="shared" si="22"/>
-        <v>11.666666666664241</v>
+        <v>15.625</v>
       </c>
       <c r="I85" s="140">
         <f>VLOOKUP($A85,IF(C85=1,Pre12.11.19!$A$17:$O$40,IF(C85=2,Pre13.11.19!$A$17:$O$40,IF(C85=3,Pre14.11.19!$A$17:$O$40,IF(C85=4,Pre15.11.19!$A$17:$O$40,IF(C85=5,Inc18.11.19!$A$17:$O$40,IF(C85=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),2,FALSE)</f>
@@ -23373,19 +23451,20 @@
         <f t="shared" si="25"/>
         <v>22.6875</v>
       </c>
-      <c r="M85" t="s">
-        <v>351</v>
+      <c r="M85" t="str">
+        <f t="shared" si="26"/>
+        <v>inc</v>
       </c>
       <c r="N85" s="10">
-        <f t="shared" si="26"/>
-        <v>11.020833333335759</v>
+        <f t="shared" si="27"/>
+        <v>7.0625</v>
       </c>
       <c r="O85">
         <f>IFERROR(VLOOKUP($A85,IF(C85=1,Pre12.11.19!$A$17:$O$40,IF(C85=2,Pre13.11.19!$A$17:$O$40,IF(C85=3,Pre14.11.19!$A$17:$O$40,IF(C85=4,Pre15.11.19!$A$17:$O$40,IF(C85=5,Inc18.11.19!$A$17:$O$40,IF(C85=6,Inc21.11.19!$A$17:$O$40,Inc22.11.19!$A$17:$O$28)))))),14,FALSE),"")</f>
         <v>26.67036980796048</v>
       </c>
       <c r="P85" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11.020833333335759</v>
       </c>
     </row>
@@ -30370,7 +30449,7 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
